--- a/К защите/Саша/ЭОПР_курсач.xlsx
+++ b/К защите/Саша/ЭОПР_курсач.xlsx
@@ -1617,12 +1617,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1650,20 +1644,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1712,6 +1697,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1769,7 +1769,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1993,11 +1992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298255488"/>
-        <c:axId val="298257408"/>
+        <c:axId val="370132480"/>
+        <c:axId val="370134400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298255488"/>
+        <c:axId val="370132480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,12 +2053,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298257408"/>
+        <c:crossAx val="370134400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298257408"/>
+        <c:axId val="370134400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2115,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298255488"/>
+        <c:crossAx val="370132480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2130,7 +2129,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2212,7 +2210,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2260,11 +2257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298277888"/>
-        <c:axId val="298279680"/>
+        <c:axId val="369827200"/>
+        <c:axId val="369841280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298277888"/>
+        <c:axId val="369827200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,13 +2271,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298279680"/>
+        <c:crossAx val="369841280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298279680"/>
+        <c:axId val="369841280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298277888"/>
+        <c:crossAx val="369827200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2425,7 +2422,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>8.3415571948375664</c:v>
+                  <c:v>7.0955753882476547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,7 +2495,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>8.3415571948375664</c:v>
+                  <c:v>7.0955753882476547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,7 +2568,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>8.3415571948375664</c:v>
+                  <c:v>7.0955753882476547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,8 +2633,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3690102303279666E-2"/>
-                  <c:y val="0.56599460990767991"/>
+                  <c:x val="-2.6619148466315679E-2"/>
+                  <c:y val="0.49777352614593168"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2685,7 +2682,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>8.3415571948375664</c:v>
+                  <c:v>7.0955753882476547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,13 +2694,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>59054.876573431364</c:v>
+                  <c:v>68140.242200113105</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>49260.963057135086</c:v>
+                  <c:v>48349.42255043568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2718,11 +2715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298877312"/>
-        <c:axId val="298878848"/>
+        <c:axId val="370729728"/>
+        <c:axId val="370731264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298877312"/>
+        <c:axId val="370729728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,12 +2776,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298878848"/>
+        <c:crossAx val="370731264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298878848"/>
+        <c:axId val="370731264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,7 +2838,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298877312"/>
+        <c:crossAx val="370729728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2989,16 +2986,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11990.854223139706</c:v>
+                  <c:v>-7645.1755113978015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4122.933936503814</c:v>
+                  <c:v>4749.493433302574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16823.543343230525</c:v>
+                  <c:v>26562.057828738023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36012.642798248577</c:v>
+                  <c:v>50906.43773435794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3013,13 +3010,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298588416"/>
-        <c:axId val="298602496"/>
+        <c:axId val="370174208"/>
+        <c:axId val="370176000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298588416"/>
+        <c:axId val="370174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2020"/>
+          <c:min val="2016"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3030,13 +3029,13 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="298602496"/>
+        <c:crossAx val="370176000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298602496"/>
+        <c:axId val="370176000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298588416"/>
+        <c:crossAx val="370174208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3335,11 +3334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298632704"/>
-        <c:axId val="298634240"/>
+        <c:axId val="370480640"/>
+        <c:axId val="370482176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298632704"/>
+        <c:axId val="370480640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3396,12 +3395,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298634240"/>
+        <c:crossAx val="370482176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298634240"/>
+        <c:axId val="370482176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +3457,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298632704"/>
+        <c:crossAx val="370480640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3633,11 +3632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298654336"/>
-        <c:axId val="298668416"/>
+        <c:axId val="370498560"/>
+        <c:axId val="370512640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298654336"/>
+        <c:axId val="370498560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3650,13 +3649,13 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="298668416"/>
+        <c:crossAx val="370512640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298668416"/>
+        <c:axId val="370512640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3670,7 +3669,7 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="298654336"/>
+        <c:crossAx val="370498560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4181,8 +4180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -4208,114 +4207,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C1"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>0.33500000000000002</v>
       </c>
       <c r="C2"/>
-      <c r="D2" s="41">
+      <c r="D2" s="58">
         <v>2</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="37" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="27">
         <v>1.05</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="35" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>3.2250000000000001</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="35" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>2.0049999999999999</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="35" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="45">
         <v>1.5549999999999999</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="36" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="45">
         <v>0.77500000000000002</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="45">
         <v>3.43</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="46">
         <v>2.6</v>
       </c>
       <c r="C9"/>
@@ -4323,10 +4322,10 @@
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <v>0.22500000000000001</v>
       </c>
       <c r="C10"/>
@@ -4337,7 +4336,7 @@
       <c r="A11" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="40">
         <f>SUM(B2:B10)</f>
         <v>15.2</v>
       </c>
@@ -4428,7 +4427,7 @@
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="47" t="s">
         <v>162</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -4520,7 +4519,7 @@
       <c r="B28" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="48" t="s">
         <v>165</v>
       </c>
       <c r="D28" s="16">
@@ -4902,7 +4901,7 @@
   <dimension ref="A4:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+      <selection activeCell="F62" sqref="F62:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -5068,7 +5067,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="62.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" ht="62.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>30</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" ht="62.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
@@ -5190,13 +5189,13 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="51">
         <f>E24*E10/100</f>
         <v>2450</v>
       </c>
@@ -5205,13 +5204,13 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="52">
         <f>E14*E13*E11*E12*E17</f>
         <v>1223.5838999999996</v>
       </c>
@@ -5220,13 +5219,13 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="49">
         <f>E25*11.8*E17</f>
         <v>177000</v>
       </c>
@@ -5235,13 +5234,13 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="49">
         <f>D30*E22/100</f>
         <v>60534.000000000007</v>
       </c>
@@ -5250,13 +5249,13 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="49">
         <f>E10*E16/100</f>
         <v>2100</v>
       </c>
@@ -5266,13 +5265,13 @@
     </row>
     <row r="33" spans="1:15" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="49">
         <f>(D30+D32+D31+D29+D28)*E23/100</f>
         <v>53527.668458</v>
       </c>
@@ -5282,13 +5281,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="49">
         <f>100/E26</f>
         <v>4.166666666666667</v>
       </c>
@@ -5298,13 +5297,13 @@
     </row>
     <row r="35" spans="1:15" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="49">
         <f>E10*D34*11.8/100</f>
         <v>17208.333333333336</v>
       </c>
@@ -5314,13 +5313,13 @@
     </row>
     <row r="36" spans="1:15" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="49">
         <f>D35+D33+D32+D31+D30+D29+D28</f>
         <v>314043.58569133334</v>
       </c>
@@ -5330,13 +5329,13 @@
     </row>
     <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="49">
         <f>D36/(C27*E17)</f>
         <v>164.86006461792599</v>
       </c>
@@ -5381,7 +5380,7 @@
       </c>
       <c r="L39" s="19">
         <f>N41</f>
-        <v>8.3415571948375664</v>
+        <v>7.0955753882476547</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -5446,7 +5445,7 @@
       </c>
       <c r="N41" s="18">
         <f>J40/(N42-O42)</f>
-        <v>8.3415571948375664</v>
+        <v>7.0955753882476547</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -5479,7 +5478,7 @@
       <c r="L42" s="19"/>
       <c r="N42" s="18">
         <f>J43/J39</f>
-        <v>5905.4876573431366</v>
+        <v>6814.0242200113107</v>
       </c>
       <c r="O42" s="18">
         <f>J41/J39</f>
@@ -5501,14 +5500,14 @@
       </c>
       <c r="J43" s="19">
         <f>D62</f>
-        <v>59054.876573431364</v>
+        <v>68140.242200113105</v>
       </c>
       <c r="K43" s="18">
         <v>0</v>
       </c>
       <c r="L43" s="19">
         <f>N42*N41</f>
-        <v>49260.963057135086</v>
+        <v>48349.42255043568</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -5704,7 +5703,7 @@
         <v>7315.8412255968424</v>
       </c>
       <c r="F61" s="8">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
@@ -5716,7 +5715,7 @@
       </c>
       <c r="D62" s="8">
         <f>D59+D63</f>
-        <v>59054.876573431364</v>
+        <v>68140.242200113105</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
@@ -5728,7 +5727,7 @@
       </c>
       <c r="D63" s="8">
         <f>D59*F61/100</f>
-        <v>8580.6230918660949</v>
+        <v>17665.988718547844</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
@@ -5740,7 +5739,7 @@
       </c>
       <c r="D64" s="8">
         <f>D62/D65</f>
-        <v>5905.4876573431366</v>
+        <v>6814.0242200113107</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -5792,7 +5791,7 @@
         <v>7</v>
       </c>
       <c r="F68" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="16">
         <v>10</v>
@@ -5810,19 +5809,19 @@
       </c>
       <c r="D69" s="16">
         <f>$D$64*D68</f>
-        <v>35432.925944058821</v>
+        <v>40884.145320067866</v>
       </c>
       <c r="E69" s="16">
         <f>$D$64*E68</f>
-        <v>41338.413601401953</v>
+        <v>47698.169540079172</v>
       </c>
       <c r="F69" s="16">
         <f>$D$64*F68</f>
-        <v>53149.388916088232</v>
+        <v>54512.193760090486</v>
       </c>
       <c r="G69" s="16">
         <f>$D$64*G68</f>
-        <v>59054.876573431364</v>
+        <v>68140.242200113105</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -5889,19 +5888,19 @@
       </c>
       <c r="D72" s="16">
         <f>D69-(D70+D71)</f>
-        <v>-15041.327537506448</v>
+        <v>-9590.1081614974028</v>
       </c>
       <c r="E72" s="16">
         <f>E69-(E70+E71)</f>
-        <v>11053.861512462794</v>
+        <v>17413.617451140013</v>
       </c>
       <c r="F72" s="16">
         <f>F69-(F70+F71)</f>
-        <v>32959.687523462126</v>
+        <v>34322.49236746438</v>
       </c>
       <c r="G72" s="16">
         <f>G69-(G70+G71)</f>
-        <v>33817.749832648726</v>
+        <v>42903.115459330467</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -5945,19 +5944,19 @@
       </c>
       <c r="D74" s="16">
         <f>D72*D73</f>
-        <v>-11990.854223139706</v>
+        <v>-7645.1755113978015</v>
       </c>
       <c r="E74" s="16">
         <f>E72*E73</f>
-        <v>7867.9202866358919</v>
+        <v>12394.668944700376</v>
       </c>
       <c r="F74" s="16">
         <f>F72*F73</f>
-        <v>20946.477279734339</v>
+        <v>21812.564395435449</v>
       </c>
       <c r="G74" s="16">
         <f>G72*G73</f>
-        <v>19189.099455018051</v>
+        <v>24344.379905619913</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -5972,19 +5971,19 @@
       </c>
       <c r="D75" s="16">
         <f>C75+D74</f>
-        <v>-11990.854223139706</v>
+        <v>-7645.1755113978015</v>
       </c>
       <c r="E75" s="16">
         <f>D75+E74</f>
-        <v>-4122.933936503814</v>
+        <v>4749.493433302574</v>
       </c>
       <c r="F75" s="16">
         <f>E75+F74</f>
-        <v>16823.543343230525</v>
+        <v>26562.057828738023</v>
       </c>
       <c r="G75" s="16">
         <f>F75+G74</f>
-        <v>36012.642798248577</v>
+        <v>50906.43773435794</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -6028,19 +6027,19 @@
       </c>
       <c r="D77" s="16">
         <f>D69-D71-D76</f>
-        <v>-23951.327537506448</v>
+        <v>-18500.108161497403</v>
       </c>
       <c r="E77" s="16">
         <f t="shared" ref="E77:G77" si="1">E69-E71-E76</f>
-        <v>2143.8615124627941</v>
+        <v>8503.6174511400131</v>
       </c>
       <c r="F77" s="16">
         <f t="shared" si="1"/>
-        <v>24049.687523462126</v>
+        <v>25412.49236746438</v>
       </c>
       <c r="G77" s="16">
         <f t="shared" si="1"/>
-        <v>24907.749832648726</v>
+        <v>33993.115459330467</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -6056,19 +6055,19 @@
       </c>
       <c r="D78" s="16">
         <f>D77/$C$70*100</f>
-        <v>-53.762800308656445</v>
+        <v>-41.526617646458817</v>
       </c>
       <c r="E78" s="16">
         <f t="shared" ref="E78:G78" si="2">E77/$C$70*100</f>
-        <v>4.8122592872341059</v>
+        <v>19.087805726464676</v>
       </c>
       <c r="F78" s="16">
         <f t="shared" si="2"/>
-        <v>53.983585911250564</v>
+        <v>57.042631576799948</v>
       </c>
       <c r="G78" s="16">
         <f t="shared" si="2"/>
-        <v>55.909651700670537</v>
+        <v>76.303289470999928</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -6503,10 +6502,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="26"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="6">
         <f>100/E26*G39</f>
         <v>5</v>
@@ -6543,10 +6542,10 @@
     </row>
     <row r="36" spans="1:11" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="6">
         <f>D35+D33+D32+D31+D30+D29+D28</f>
         <v>325515.82272</v>

--- a/К защите/Саша/ЭОПР_курсач.xlsx
+++ b/К защите/Саша/ЭОПР_курсач.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="188">
   <si>
     <t>Норма амартизац от4исл = 1/срок полезн исп(мес) * 100</t>
   </si>
@@ -1174,6 +1174,15 @@
   </si>
   <si>
     <t>Рентабельность</t>
+  </si>
+  <si>
+    <t>Срок окупаемости</t>
+  </si>
+  <si>
+    <t>Срок возврата капиталовложений</t>
+  </si>
+  <si>
+    <t>Максимальный денежный отток</t>
   </si>
 </sst>
 </file>
@@ -1992,11 +2001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370132480"/>
-        <c:axId val="370134400"/>
+        <c:axId val="377308672"/>
+        <c:axId val="377310592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370132480"/>
+        <c:axId val="377308672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,12 +2062,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370134400"/>
+        <c:crossAx val="377310592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370134400"/>
+        <c:axId val="377310592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2124,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370132480"/>
+        <c:crossAx val="377308672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2257,11 +2266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369827200"/>
-        <c:axId val="369841280"/>
+        <c:axId val="377335168"/>
+        <c:axId val="377345152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369827200"/>
+        <c:axId val="377335168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,13 +2280,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="369841280"/>
+        <c:crossAx val="377345152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369841280"/>
+        <c:axId val="377345152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="369827200"/>
+        <c:crossAx val="377335168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2715,11 +2724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370729728"/>
-        <c:axId val="370731264"/>
+        <c:axId val="377508608"/>
+        <c:axId val="377510144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370729728"/>
+        <c:axId val="377508608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,12 +2785,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370731264"/>
+        <c:crossAx val="377510144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370731264"/>
+        <c:axId val="377510144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,7 +2847,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370729728"/>
+        <c:crossAx val="377508608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2940,10 +2949,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6453909298925718E-2"/>
-          <c:y val="3.6301539471990836E-2"/>
-          <c:w val="0.87980238621624196"/>
-          <c:h val="0.91749042240229484"/>
+          <c:x val="8.0226614611281361E-2"/>
+          <c:y val="5.9966770486310272E-2"/>
+          <c:w val="0.73392270771446433"/>
+          <c:h val="0.89382530043945763"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2952,6 +2961,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Интегральный экономический эффект</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>Лист2!$C$67:$G$67</c:f>
@@ -2978,7 +2998,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$C$75:$G$75</c:f>
+              <c:f>Лист2!$C$87:$G$87</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2986,16 +3006,204 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7645.1755113978015</c:v>
+                  <c:v>-46763.077121720424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4749.493433302574</c:v>
+                  <c:v>-29518.320329093811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26562.057828738023</c:v>
+                  <c:v>-3375.3203551527949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50906.43773435794</c:v>
+                  <c:v>20969.059550467118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Срок возврата капиталовложений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$91:$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$92:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Максимальный денежный отток</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="12"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$94:$D$94</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$95:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-46763.077121720424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Срок окупаемости</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$67:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$89:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Интегральный экономический эффект</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$97:$D$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$98:$D$98</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20969.059550467118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3003,6 +3211,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3010,11 +3219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370174208"/>
-        <c:axId val="370176000"/>
+        <c:axId val="377178752"/>
+        <c:axId val="377201024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370174208"/>
+        <c:axId val="377178752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2020"/>
@@ -3022,6 +3231,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="cross"/>
@@ -3029,13 +3239,13 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="370176000"/>
+        <c:crossAx val="377201024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370176000"/>
+        <c:axId val="377201024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370174208"/>
+        <c:crossAx val="377178752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3064,6 +3274,20 @@
         </a:effectLst>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83310606055354874"/>
+          <c:y val="0.18975515933260445"/>
+          <c:w val="0.15934843694717682"/>
+          <c:h val="0.50646633868558433"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3127,6 +3351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3334,11 +3559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370480640"/>
-        <c:axId val="370482176"/>
+        <c:axId val="377984896"/>
+        <c:axId val="377986432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370480640"/>
+        <c:axId val="377984896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3395,12 +3620,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370482176"/>
+        <c:crossAx val="377986432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370482176"/>
+        <c:axId val="377986432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3457,7 +3682,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370480640"/>
+        <c:crossAx val="377984896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3471,6 +3696,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3552,6 +3778,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3632,11 +3859,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370498560"/>
-        <c:axId val="370512640"/>
+        <c:axId val="377998720"/>
+        <c:axId val="378012800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370498560"/>
+        <c:axId val="377998720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,13 +3876,13 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="370512640"/>
+        <c:crossAx val="378012800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370512640"/>
+        <c:axId val="378012800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3669,7 +3896,7 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="370498560"/>
+        <c:crossAx val="377998720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3790,15 +4017,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>297126</xdr:colOff>
+      <xdr:colOff>351554</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>54363</xdr:rowOff>
+      <xdr:rowOff>108792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390367</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>242549</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>24835</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4180,7 +4407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -4898,10 +5125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O86"/>
+  <dimension ref="A4:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:F63"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -5785,13 +6012,13 @@
         <v>0</v>
       </c>
       <c r="D68" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F68" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68" s="16">
         <v>10</v>
@@ -5809,15 +6036,15 @@
       </c>
       <c r="D69" s="16">
         <f>$D$64*D68</f>
-        <v>40884.145320067866</v>
+        <v>47698.169540079172</v>
       </c>
       <c r="E69" s="16">
         <f>$D$64*E68</f>
-        <v>47698.169540079172</v>
+        <v>54512.193760090486</v>
       </c>
       <c r="F69" s="16">
         <f>$D$64*F68</f>
-        <v>54512.193760090486</v>
+        <v>61326.217980101799</v>
       </c>
       <c r="G69" s="16">
         <f>$D$64*G68</f>
@@ -5888,15 +6115,15 @@
       </c>
       <c r="D72" s="16">
         <f>D69-(D70+D71)</f>
-        <v>-9590.1081614974028</v>
+        <v>-2776.0839414860966</v>
       </c>
       <c r="E72" s="16">
         <f>E69-(E70+E71)</f>
-        <v>17413.617451140013</v>
+        <v>24227.641671151327</v>
       </c>
       <c r="F72" s="16">
         <f>F69-(F70+F71)</f>
-        <v>34322.49236746438</v>
+        <v>41136.516587475693</v>
       </c>
       <c r="G72" s="16">
         <f>G69-(G70+G71)</f>
@@ -5944,15 +6171,15 @@
       </c>
       <c r="D74" s="16">
         <f>D72*D73</f>
-        <v>-7645.1755113978015</v>
+        <v>-2213.077121720421</v>
       </c>
       <c r="E74" s="16">
         <f>E72*E73</f>
-        <v>12394.668944700376</v>
+        <v>17244.756792626613</v>
       </c>
       <c r="F74" s="16">
         <f>F72*F73</f>
-        <v>21812.564395435449</v>
+        <v>26142.999973941016</v>
       </c>
       <c r="G74" s="16">
         <f>G72*G73</f>
@@ -5967,23 +6194,24 @@
         <v>101</v>
       </c>
       <c r="C75" s="16">
-        <v>0</v>
+        <f>C74</f>
+        <v>-44550</v>
       </c>
       <c r="D75" s="16">
         <f>C75+D74</f>
-        <v>-7645.1755113978015</v>
+        <v>-46763.077121720424</v>
       </c>
       <c r="E75" s="16">
         <f>D75+E74</f>
-        <v>4749.493433302574</v>
+        <v>-29518.320329093811</v>
       </c>
       <c r="F75" s="16">
         <f>E75+F74</f>
-        <v>26562.057828738023</v>
+        <v>-3375.3203551527949</v>
       </c>
       <c r="G75" s="16">
         <f>F75+G74</f>
-        <v>50906.43773435794</v>
+        <v>20969.059550467118</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -5998,19 +6226,19 @@
         <v>8910</v>
       </c>
       <c r="D76" s="16">
-        <f t="shared" ref="D76:G76" si="0">$C$70/5</f>
+        <f>$C$70/5</f>
         <v>8910</v>
       </c>
       <c r="E76" s="16">
-        <f t="shared" si="0"/>
+        <f>$C$70/5</f>
         <v>8910</v>
       </c>
       <c r="F76" s="16">
-        <f t="shared" si="0"/>
+        <f>$C$70/5</f>
         <v>8910</v>
       </c>
       <c r="G76" s="16">
-        <f t="shared" si="0"/>
+        <f>$C$70/5</f>
         <v>8910</v>
       </c>
     </row>
@@ -6027,18 +6255,18 @@
       </c>
       <c r="D77" s="16">
         <f>D69-D71-D76</f>
-        <v>-18500.108161497403</v>
+        <v>-11686.083941486097</v>
       </c>
       <c r="E77" s="16">
-        <f t="shared" ref="E77:G77" si="1">E69-E71-E76</f>
-        <v>8503.6174511400131</v>
+        <f>E69-E71-E76</f>
+        <v>15317.641671151327</v>
       </c>
       <c r="F77" s="16">
-        <f t="shared" si="1"/>
-        <v>25412.49236746438</v>
+        <f>F69-F71-F76</f>
+        <v>32226.516587475693</v>
       </c>
       <c r="G77" s="16">
-        <f t="shared" si="1"/>
+        <f>G69-G71-G76</f>
         <v>33993.115459330467</v>
       </c>
     </row>
@@ -6055,18 +6283,18 @@
       </c>
       <c r="D78" s="16">
         <f>D77/$C$70*100</f>
-        <v>-41.526617646458817</v>
+        <v>-26.231389318711777</v>
       </c>
       <c r="E78" s="16">
-        <f t="shared" ref="E78:G78" si="2">E77/$C$70*100</f>
-        <v>19.087805726464676</v>
+        <f>E77/$C$70*100</f>
+        <v>34.383034054211734</v>
       </c>
       <c r="F78" s="16">
-        <f t="shared" si="2"/>
-        <v>57.042631576799948</v>
+        <f>F77/$C$70*100</f>
+        <v>72.337859904547003</v>
       </c>
       <c r="G78" s="16">
-        <f t="shared" si="2"/>
+        <f>G77/$C$70*100</f>
         <v>76.303289470999928</v>
       </c>
     </row>
@@ -6078,14 +6306,113 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86" s="8" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C87" s="8">
+        <v>0</v>
+      </c>
+      <c r="D87" s="8">
+        <f>D75</f>
+        <v>-46763.077121720424</v>
+      </c>
+      <c r="E87" s="8">
+        <f>E75</f>
+        <v>-29518.320329093811</v>
+      </c>
+      <c r="F87" s="8">
+        <f>F75</f>
+        <v>-3375.3203551527949</v>
+      </c>
+      <c r="G87" s="8">
+        <f>G75</f>
+        <v>20969.059550467118</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C89" s="8">
+        <v>0</v>
+      </c>
+      <c r="D89" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C91" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D91" s="8">
+        <v>2019.15</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C92" s="8">
+        <v>0</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C94" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D94" s="8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C95" s="8">
+        <v>0</v>
+      </c>
+      <c r="D95" s="8">
+        <f>D75</f>
+        <v>-46763.077121720424</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C97" s="8">
+        <v>2020</v>
+      </c>
+      <c r="D97" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C98" s="8">
+        <v>0</v>
+      </c>
+      <c r="D98" s="8">
+        <f>G75</f>
+        <v>20969.059550467118</v>
       </c>
     </row>
   </sheetData>
@@ -6098,8 +6425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="49" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView topLeftCell="A55" zoomScale="49" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>

--- a/К защите/Саша/ЭОПР_курсач.xlsx
+++ b/К защите/Саша/ЭОПР_курсач.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="191">
   <si>
     <t>Норма амартизац от4исл = 1/срок полезн исп(мес) * 100</t>
   </si>
@@ -1143,9 +1143,6 @@
     <t>Полные издержки</t>
   </si>
   <si>
-    <t>Зрек= 10% * Зпроек</t>
-  </si>
-  <si>
     <t>Проданное количество</t>
   </si>
   <si>
@@ -1167,9 +1164,6 @@
     <t>Год</t>
   </si>
   <si>
-    <t>Чистый дисконтированный денежный поток</t>
-  </si>
-  <si>
     <t>Кмортизация</t>
   </si>
   <si>
@@ -1183,6 +1177,21 @@
   </si>
   <si>
     <t>Максимальный денежный отток</t>
+  </si>
+  <si>
+    <t>затраты на послепродажное обслуживание</t>
+  </si>
+  <si>
+    <t>Зрек= 25% * Зпроек</t>
+  </si>
+  <si>
+    <t>Зрд</t>
+  </si>
+  <si>
+    <t>ЧТС=ЧДП*α</t>
+  </si>
+  <si>
+    <t>Чистая текущая стоимость</t>
   </si>
 </sst>
 </file>
@@ -1290,12 +1299,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="20">
@@ -1575,7 +1590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1720,6 +1735,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2001,11 +2019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377308672"/>
-        <c:axId val="377310592"/>
+        <c:axId val="372520448"/>
+        <c:axId val="372522368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377308672"/>
+        <c:axId val="372520448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,12 +2080,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377310592"/>
+        <c:crossAx val="372522368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377310592"/>
+        <c:axId val="372522368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2142,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377308672"/>
+        <c:crossAx val="372520448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2266,11 +2284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377335168"/>
-        <c:axId val="377345152"/>
+        <c:axId val="372534656"/>
+        <c:axId val="372544640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377335168"/>
+        <c:axId val="372534656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,13 +2298,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377345152"/>
+        <c:crossAx val="372544640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377345152"/>
+        <c:axId val="372544640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377335168"/>
+        <c:crossAx val="372534656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2371,10 +2389,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.8496323692445696E-2"/>
-          <c:y val="0.10602998956679111"/>
-          <c:w val="0.81719674987981117"/>
-          <c:h val="0.75904329612868304"/>
+          <c:x val="7.2892560266960824E-2"/>
+          <c:y val="0.10603005761973912"/>
+          <c:w val="0.89188740700422586"/>
+          <c:h val="0.7817836277008936"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2418,35 +2436,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$J$39:$L$39</c:f>
+              <c:f>Лист2!$J$39:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>7.0955753882476547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$J$40:$L$40</c:f>
+              <c:f>Лист2!$J$40:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43158.412255968426</c:v>
+                  <c:v>27865.026362354889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43158.412255968426</c:v>
+                  <c:v>27865.026362354889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,32 +2524,47 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$J$39:$L$39</c:f>
+              <c:f>Лист2!$J$39:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>7.0955753882476547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$J$41:$L$41</c:f>
+              <c:f>Лист2!$J$41:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>7315.8412255968424</c:v>
+                  <c:v>23566.256590588724</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2564,35 +2612,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$J$39:$L$39</c:f>
+              <c:f>Лист2!$J$39:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>7.0955753882476547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$J$42:$L$42</c:f>
+              <c:f>Лист2!$J$42:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50474.253481565269</c:v>
+                  <c:v>51431.282952943613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43158.412255968426</c:v>
+                  <c:v>27865.026362354889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,6 +2701,16 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
@@ -2678,38 +2751,93 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$J$39:$L$39</c:f>
+              <c:f>Лист2!$J$39:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>7.0955753882476547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$J$43:$L$43</c:f>
+              <c:f>Лист2!$J$43:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>68140.242200113105</c:v>
+                  <c:v>72003.796134121061</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>48349.42255043568</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Точка безубыточности</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10111418298632426"/>
+                  <c:y val="7.5834181740681544E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.7527749396336949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41422.163395886513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,11 +2852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377508608"/>
-        <c:axId val="377510144"/>
+        <c:axId val="373486336"/>
+        <c:axId val="373487872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377508608"/>
+        <c:axId val="373486336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,12 +2913,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377510144"/>
+        <c:crossAx val="373487872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377510144"/>
+        <c:axId val="373487872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,7 +2975,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377508608"/>
+        <c:crossAx val="373486336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2859,38 +2987,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2951,8 +3047,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.0226614611281361E-2"/>
           <c:y val="5.9966770486310272E-2"/>
-          <c:w val="0.73392270771446433"/>
-          <c:h val="0.89382530043945763"/>
+          <c:w val="0.86471141770188753"/>
+          <c:h val="0.89812806169414283"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3006,16 +3102,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-46763.077121720424</c:v>
+                  <c:v>-9829.7184461276738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-29518.320329093811</c:v>
+                  <c:v>1884.7683780668358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3375.3203551527949</c:v>
+                  <c:v>15612.682625169788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20969.059550467118</c:v>
+                  <c:v>25535.069623500996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3036,6 +3132,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1731327431139615E-3"/>
+                  <c:y val="-3.464264890179642E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист2!$C$91:$D$91</c:f>
@@ -3046,7 +3166,7 @@
                   <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2019.15</c:v>
+                  <c:v>2017.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3086,6 +3206,29 @@
             <c:symbol val="plus"/>
             <c:size val="12"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.9288446241413869E-2"/>
+                  <c:y val="4.7330373801536998E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист2!$C$94:$D$94</c:f>
@@ -3111,7 +3254,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-46763.077121720424</c:v>
+                  <c:v>-9829.7184461276738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3132,17 +3275,40 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1378923747944173E-2"/>
+                  <c:y val="-3.2270709410138862E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$C$67:$D$67</c:f>
+              <c:f>Лист2!$C$88:$D$88</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2017.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,6 +3344,29 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.18717011457880542"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист2!$C$97:$D$97</c:f>
@@ -3203,7 +3392,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20969.059550467118</c:v>
+                  <c:v>25535.069623500996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3211,7 +3400,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3219,11 +3407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377178752"/>
-        <c:axId val="377201024"/>
+        <c:axId val="372942720"/>
+        <c:axId val="372944256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377178752"/>
+        <c:axId val="372942720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2020"/>
@@ -3239,13 +3427,13 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="377201024"/>
+        <c:crossAx val="372944256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377201024"/>
+        <c:axId val="372944256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377178752"/>
+        <c:crossAx val="372942720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3274,20 +3462,6 @@
         </a:effectLst>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.83310606055354874"/>
-          <c:y val="0.18975515933260445"/>
-          <c:w val="0.15934843694717682"/>
-          <c:h val="0.50646633868558433"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3559,11 +3733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377984896"/>
-        <c:axId val="377986432"/>
+        <c:axId val="373253632"/>
+        <c:axId val="373255168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377984896"/>
+        <c:axId val="373253632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,12 +3794,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377986432"/>
+        <c:crossAx val="373255168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377986432"/>
+        <c:axId val="373255168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3682,7 +3856,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377984896"/>
+        <c:crossAx val="373253632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3859,11 +4033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377998720"/>
-        <c:axId val="378012800"/>
+        <c:axId val="373263360"/>
+        <c:axId val="373293824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377998720"/>
+        <c:axId val="373263360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,13 +4050,13 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="378012800"/>
+        <c:crossAx val="373293824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378012800"/>
+        <c:axId val="373293824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +4070,7 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="377998720"/>
+        <c:crossAx val="373263360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5127,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -5182,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="10">
-        <v>35000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5388,8 +5562,8 @@
       <c r="D25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="12">
-        <v>15000</v>
+      <c r="E25" s="63">
+        <v>9500</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
@@ -5424,7 +5598,7 @@
       </c>
       <c r="D28" s="51">
         <f>E24*E10/100</f>
-        <v>2450</v>
+        <v>1470</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -5454,7 +5628,7 @@
       </c>
       <c r="D30" s="49">
         <f>E25*11.8*E17</f>
-        <v>177000</v>
+        <v>112100</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -5469,7 +5643,7 @@
       </c>
       <c r="D31" s="49">
         <f>D30*E22/100</f>
-        <v>60534.000000000007</v>
+        <v>38338.200000000004</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -5484,7 +5658,7 @@
       </c>
       <c r="D32" s="49">
         <f>E10*E16/100</f>
-        <v>2100</v>
+        <v>1260</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -5500,7 +5674,7 @@
       </c>
       <c r="D33" s="49">
         <f>(D30+D32+D31+D29+D28)*E23/100</f>
-        <v>53527.668458</v>
+        <v>33966.192458000005</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -5532,7 +5706,7 @@
       </c>
       <c r="D35" s="49">
         <f>E10*D34*11.8/100</f>
-        <v>17208.333333333336</v>
+        <v>10325.000000000002</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="6"/>
@@ -5548,7 +5722,7 @@
       </c>
       <c r="D36" s="49">
         <f>D35+D33+D32+D31+D30+D29+D28</f>
-        <v>314043.58569133334</v>
+        <v>198682.97635800001</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -5564,7 +5738,7 @@
       </c>
       <c r="D37" s="49">
         <f>D36/(C27*E17)</f>
-        <v>164.86006461792599</v>
+        <v>104.30045322771156</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -5607,7 +5781,7 @@
       </c>
       <c r="L39" s="19">
         <f>N41</f>
-        <v>7.0955753882476547</v>
+        <v>5.7527749396336949</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -5617,7 +5791,7 @@
       </c>
       <c r="D40" s="8">
         <f>1*G40*E25</f>
-        <v>6559.7832563229604</v>
+        <v>4154.5293956712085</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>77</v>
@@ -5632,11 +5806,11 @@
       </c>
       <c r="J40" s="19">
         <f>D48</f>
-        <v>43158.412255968426</v>
+        <v>27865.026362354889</v>
       </c>
       <c r="K40" s="19">
         <f>D48</f>
-        <v>43158.412255968426</v>
+        <v>27865.026362354889</v>
       </c>
       <c r="L40" s="19"/>
     </row>
@@ -5647,7 +5821,7 @@
       </c>
       <c r="D41" s="8">
         <f>G42*D40</f>
-        <v>1967.934976896888</v>
+        <v>1246.3588187013625</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>78</v>
@@ -5661,7 +5835,7 @@
       </c>
       <c r="J41" s="19">
         <f>D61</f>
-        <v>7315.8412255968424</v>
+        <v>23566.256590588724</v>
       </c>
       <c r="K41" s="18">
         <v>0</v>
@@ -5672,7 +5846,7 @@
       </c>
       <c r="N41" s="18">
         <f>J40/(N42-O42)</f>
-        <v>7.0955753882476547</v>
+        <v>5.7527749396336949</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -5682,7 +5856,7 @@
       </c>
       <c r="D42" s="8">
         <f>D40+D41</f>
-        <v>8527.7182332198481</v>
+        <v>5400.8882143725714</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>72</v>
@@ -5696,20 +5870,20 @@
       </c>
       <c r="J42" s="19">
         <f>J40+J41</f>
-        <v>50474.253481565269</v>
+        <v>51431.282952943613</v>
       </c>
       <c r="K42" s="19">
         <f>J40</f>
-        <v>43158.412255968426</v>
+        <v>27865.026362354889</v>
       </c>
       <c r="L42" s="19"/>
       <c r="N42" s="18">
         <f>J43/J39</f>
-        <v>6814.0242200113107</v>
+        <v>7200.3796134121058</v>
       </c>
       <c r="O42" s="18">
         <f>J41/J39</f>
-        <v>731.58412255968426</v>
+        <v>2356.6256590588723</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -5719,7 +5893,7 @@
       </c>
       <c r="D43" s="8">
         <f>0.342*D42</f>
-        <v>2916.4796357611881</v>
+        <v>1847.1037693154196</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="18" t="s">
@@ -5727,14 +5901,14 @@
       </c>
       <c r="J43" s="19">
         <f>D62</f>
-        <v>68140.242200113105</v>
+        <v>72003.796134121061</v>
       </c>
       <c r="K43" s="18">
         <v>0</v>
       </c>
       <c r="L43" s="19">
         <f>N42*N41</f>
-        <v>48349.42255043568</v>
+        <v>41422.163395886513</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -5744,7 +5918,7 @@
       </c>
       <c r="D44" s="8">
         <f>D42+D43</f>
-        <v>11444.197868981037</v>
+        <v>7247.9919836879908</v>
       </c>
       <c r="H44" s="6"/>
     </row>
@@ -5755,7 +5929,7 @@
       </c>
       <c r="D45" s="8">
         <f>E23/100*D44</f>
-        <v>2517.7235311758282</v>
+        <v>1594.5582364113579</v>
       </c>
       <c r="H45" s="6"/>
     </row>
@@ -5766,7 +5940,7 @@
       </c>
       <c r="D46" s="8">
         <f>G41*168*D37</f>
-        <v>27696.490855811564</v>
+        <v>17522.476142255542</v>
       </c>
       <c r="F46" s="20"/>
       <c r="H46" s="6"/>
@@ -5785,7 +5959,7 @@
       </c>
       <c r="D48" s="8">
         <f>D46+D44+D45+D47</f>
-        <v>43158.412255968426</v>
+        <v>27865.026362354889</v>
       </c>
       <c r="L48" s="19"/>
     </row>
@@ -5826,13 +6000,13 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f>E10</f>
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G52" s="6">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
@@ -5841,7 +6015,7 @@
       </c>
       <c r="E53" s="8">
         <f>0.05*E52</f>
-        <v>1750</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
@@ -5850,7 +6024,7 @@
       </c>
       <c r="E54" s="8">
         <f>0.08*E52</f>
-        <v>2800</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
@@ -5858,12 +6032,20 @@
         <v>147</v>
       </c>
     </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="F56" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="8">
+        <v>6600</v>
+      </c>
+    </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F57" s="8" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="G57" s="8">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
@@ -5875,13 +6057,13 @@
       </c>
       <c r="D58" s="8">
         <f>E52+G52+E53+E54</f>
-        <v>44550</v>
+        <v>26230</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G58" s="8">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
@@ -5893,14 +6075,14 @@
       </c>
       <c r="D59" s="8">
         <f>D60+D61</f>
-        <v>50474.253481565269</v>
+        <v>51431.282952943613</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G59" s="8">
-        <f>0.1*D48</f>
-        <v>4315.8412255968424</v>
+        <f>0.25*D48</f>
+        <v>6966.2565905887222</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
@@ -5912,7 +6094,7 @@
       </c>
       <c r="D60" s="8">
         <f>D48</f>
-        <v>43158.412255968426</v>
+        <v>27865.026362354889</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>152</v>
@@ -5926,11 +6108,11 @@
         <v>65</v>
       </c>
       <c r="D61" s="8">
-        <f>G57+G58+G59</f>
-        <v>7315.8412255968424</v>
+        <f>G57+G58+G59+G56</f>
+        <v>23566.256590588724</v>
       </c>
       <c r="F61" s="8">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
@@ -5942,7 +6124,7 @@
       </c>
       <c r="D62" s="8">
         <f>D59+D63</f>
-        <v>68140.242200113105</v>
+        <v>72003.796134121061</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
@@ -5954,7 +6136,7 @@
       </c>
       <c r="D63" s="8">
         <f>D59*F61/100</f>
-        <v>17665.988718547844</v>
+        <v>20572.513181177444</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
@@ -5966,7 +6148,7 @@
       </c>
       <c r="D64" s="8">
         <f>D62/D65</f>
-        <v>6814.0242200113107</v>
+        <v>7200.3796134121058</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -5982,7 +6164,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16">
@@ -6003,7 +6185,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>81</v>
@@ -6012,16 +6194,16 @@
         <v>0</v>
       </c>
       <c r="D68" s="16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16">
         <v>8</v>
       </c>
       <c r="F68" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="16">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -6036,31 +6218,31 @@
       </c>
       <c r="D69" s="16">
         <f>$D$64*D68</f>
-        <v>47698.169540079172</v>
+        <v>72003.796134121061</v>
       </c>
       <c r="E69" s="16">
         <f>$D$64*E68</f>
-        <v>54512.193760090486</v>
+        <v>57603.036907296846</v>
       </c>
       <c r="F69" s="16">
         <f>$D$64*F68</f>
-        <v>61326.217980101799</v>
+        <v>57603.036907296846</v>
       </c>
       <c r="G69" s="16">
         <f>$D$64*G68</f>
-        <v>68140.242200113105</v>
+        <v>43202.277680472631</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="16">
         <f>D58</f>
-        <v>44550</v>
+        <v>26230</v>
       </c>
       <c r="D70" s="16">
         <v>0</v>
@@ -6077,62 +6259,62 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C71" s="16">
         <v>0</v>
       </c>
       <c r="D71" s="16">
         <f>D59</f>
-        <v>50474.253481565269</v>
+        <v>51431.282952943613</v>
       </c>
       <c r="E71" s="16">
-        <f>0.6*$D$71</f>
-        <v>30284.552088939159</v>
+        <f>0.8*$D$71</f>
+        <v>41145.026362354896</v>
       </c>
       <c r="F71" s="16">
-        <f>0.4*$D$71</f>
-        <v>20189.70139262611</v>
+        <f>0.7*$D$71</f>
+        <v>36001.898067060523</v>
       </c>
       <c r="G71" s="16">
         <f>0.5*$D$71</f>
-        <v>25237.126740782634</v>
+        <v>25715.641476471807</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="16">
         <f>C69-(C70+C71)</f>
-        <v>-44550</v>
+        <v>-26230</v>
       </c>
       <c r="D72" s="16">
         <f>D69-(D70+D71)</f>
-        <v>-2776.0839414860966</v>
+        <v>20572.513181177448</v>
       </c>
       <c r="E72" s="16">
         <f>E69-(E70+E71)</f>
-        <v>24227.641671151327</v>
+        <v>16458.01054494195</v>
       </c>
       <c r="F72" s="16">
         <f>F69-(F70+F71)</f>
-        <v>41136.516587475693</v>
+        <v>21601.138840236323</v>
       </c>
       <c r="G72" s="16">
         <f>G69-(G70+G71)</f>
-        <v>42903.115459330467</v>
+        <v>17486.636204000824</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>86</v>
@@ -6160,30 +6342,30 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="C74" s="16">
         <f>C72*C73</f>
-        <v>-44550</v>
+        <v>-26230</v>
       </c>
       <c r="D74" s="16">
         <f>D72*D73</f>
-        <v>-2213.077121720421</v>
+        <v>16400.281553872326</v>
       </c>
       <c r="E74" s="16">
         <f>E72*E73</f>
-        <v>17244.756792626613</v>
+        <v>11714.48682419451</v>
       </c>
       <c r="F74" s="16">
         <f>F72*F73</f>
-        <v>26142.999973941016</v>
+        <v>13727.914247102952</v>
       </c>
       <c r="G74" s="16">
         <f>G72*G73</f>
-        <v>24344.379905619913</v>
+        <v>9922.3869983312088</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -6195,51 +6377,51 @@
       </c>
       <c r="C75" s="16">
         <f>C74</f>
-        <v>-44550</v>
+        <v>-26230</v>
       </c>
       <c r="D75" s="16">
         <f>C75+D74</f>
-        <v>-46763.077121720424</v>
+        <v>-9829.7184461276738</v>
       </c>
       <c r="E75" s="16">
         <f>D75+E74</f>
-        <v>-29518.320329093811</v>
+        <v>1884.7683780668358</v>
       </c>
       <c r="F75" s="16">
         <f>E75+F74</f>
-        <v>-3375.3203551527949</v>
+        <v>15612.682625169788</v>
       </c>
       <c r="G75" s="16">
         <f>F75+G74</f>
-        <v>20969.059550467118</v>
+        <v>25535.069623500996</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C76" s="16">
         <f>$C$70/5</f>
-        <v>8910</v>
+        <v>5246</v>
       </c>
       <c r="D76" s="16">
         <f>$C$70/5</f>
-        <v>8910</v>
+        <v>5246</v>
       </c>
       <c r="E76" s="16">
         <f>$C$70/5</f>
-        <v>8910</v>
+        <v>5246</v>
       </c>
       <c r="F76" s="16">
         <f>$C$70/5</f>
-        <v>8910</v>
+        <v>5246</v>
       </c>
       <c r="G76" s="16">
         <f>$C$70/5</f>
-        <v>8910</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -6251,28 +6433,28 @@
       </c>
       <c r="C77" s="16">
         <f>C69-C71-C76</f>
-        <v>-8910</v>
+        <v>-5246</v>
       </c>
       <c r="D77" s="16">
         <f>D69-D71-D76</f>
-        <v>-11686.083941486097</v>
+        <v>15326.513181177448</v>
       </c>
       <c r="E77" s="16">
         <f>E69-E71-E76</f>
-        <v>15317.641671151327</v>
+        <v>11212.01054494195</v>
       </c>
       <c r="F77" s="16">
         <f>F69-F71-F76</f>
-        <v>32226.516587475693</v>
+        <v>16355.138840236323</v>
       </c>
       <c r="G77" s="16">
         <f>G69-G71-G76</f>
-        <v>33993.115459330467</v>
+        <v>12240.636204000824</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>102</v>
@@ -6283,19 +6465,19 @@
       </c>
       <c r="D78" s="16">
         <f>D77/$C$70*100</f>
-        <v>-26.231389318711777</v>
+        <v>58.431235917565573</v>
       </c>
       <c r="E78" s="16">
         <f>E77/$C$70*100</f>
-        <v>34.383034054211734</v>
+        <v>42.74498873405242</v>
       </c>
       <c r="F78" s="16">
         <f>F77/$C$70*100</f>
-        <v>72.337859904547003</v>
+        <v>62.352797713443856</v>
       </c>
       <c r="G78" s="16">
         <f>G77/$C$70*100</f>
-        <v>76.303289470999928</v>
+        <v>46.666550529930703</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -6322,24 +6504,30 @@
       </c>
       <c r="D87" s="8">
         <f>D75</f>
-        <v>-46763.077121720424</v>
+        <v>-9829.7184461276738</v>
       </c>
       <c r="E87" s="8">
         <f>E75</f>
-        <v>-29518.320329093811</v>
+        <v>1884.7683780668358</v>
       </c>
       <c r="F87" s="8">
         <f>F75</f>
-        <v>-3375.3203551527949</v>
+        <v>15612.682625169788</v>
       </c>
       <c r="G87" s="8">
         <f>G75</f>
-        <v>20969.059550467118</v>
+        <v>25535.069623500996</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="C88" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D88" s="8">
+        <v>2017.85</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.35">
@@ -6352,7 +6540,7 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.35">
@@ -6360,7 +6548,7 @@
         <v>2016</v>
       </c>
       <c r="D91" s="8">
-        <v>2019.15</v>
+        <v>2017.85</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.35">
@@ -6373,7 +6561,7 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.35">
@@ -6390,7 +6578,7 @@
       </c>
       <c r="D95" s="8">
         <f>D75</f>
-        <v>-46763.077121720424</v>
+        <v>-9829.7184461276738</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.35">
@@ -6412,7 +6600,7 @@
       </c>
       <c r="D98" s="8">
         <f>G75</f>
-        <v>20969.059550467118</v>
+        <v>25535.069623500996</v>
       </c>
     </row>
   </sheetData>
@@ -6425,7 +6613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="49" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
       <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
